--- a/results/gurobi_cplex_comparison/seed_30_k_10.xlsx
+++ b/results/gurobi_cplex_comparison/seed_30_k_10.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.004</v>
+        <v>0.328</v>
       </c>
       <c r="F2">
-        <v>0.014</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.008999999999999999</v>
+        <v>0.409</v>
       </c>
       <c r="F3">
-        <v>0.021</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.027</v>
+        <v>0.572</v>
       </c>
       <c r="F4">
-        <v>0.265</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.008</v>
+        <v>0.716</v>
       </c>
       <c r="F5">
-        <v>0.025</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.022</v>
+        <v>0.91</v>
       </c>
       <c r="F6">
-        <v>0.038</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.008999999999999999</v>
+        <v>1.112</v>
       </c>
       <c r="F7">
-        <v>0.032</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.015</v>
+        <v>1.363</v>
       </c>
       <c r="F8">
-        <v>0.038</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.019</v>
+        <v>1.605</v>
       </c>
       <c r="F9">
-        <v>0.039</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04</v>
+        <v>1.924</v>
       </c>
       <c r="F10">
-        <v>0.123</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07099999999999999</v>
+        <v>2.235</v>
       </c>
       <c r="F11">
-        <v>0.299</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.074</v>
+        <v>2.553</v>
       </c>
       <c r="F12">
-        <v>29.112</v>
+        <v>24.593</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.066</v>
+        <v>2.963</v>
       </c>
       <c r="F13">
-        <v>55.468</v>
+        <v>55.784</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.079</v>
+        <v>3.26</v>
       </c>
       <c r="F14">
-        <v>56.023</v>
+        <v>106.483</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.019</v>
+        <v>3.933</v>
       </c>
       <c r="F15">
-        <v>0.054</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.022</v>
+        <v>4.105</v>
       </c>
       <c r="F16">
-        <v>10.774</v>
+        <v>31.493</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.054</v>
+        <v>4.55</v>
       </c>
       <c r="F17">
-        <v>95.09999999999999</v>
+        <v>90.39400000000001</v>
       </c>
     </row>
   </sheetData>
